--- a/src/main/resources/excel/Home.xlsx
+++ b/src/main/resources/excel/Home.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary3" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,11 +18,6 @@
     <sheet name="Bathroom2" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Bathroom" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Ktichen4" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Kitchen3" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Kitchen2" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Kitchen" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Home" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Home2" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
   <si>
     <t xml:space="preserve">wall</t>
   </si>
@@ -667,348 +662,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lavadora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maceta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubbish bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cubo de basura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garbage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trash Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bote de basura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saucepan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cacerola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scissors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijeras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soup spoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuchara sopera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuchara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablespoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucharada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dishwasher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavavajillas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food mixer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procesador de alimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freezer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congelador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frying pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sartén</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household appliances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrodomésticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironing board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabla de planchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuchillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucharón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microonda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuenco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cupboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can opener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrelatas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casserole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cazuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafetera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooking utensils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utensilios de cocina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kitchen utensils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utensilios de cocina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corkscrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacacorchos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encimera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crockery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vajilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cutlery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuchillería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuarto de baño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dormitorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dining room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kitchen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cocina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">living room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ático</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sótano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backyard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patio trasero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hall </t>
-  </si>
-  <si>
-    <t xml:space="preserve">salón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hallway </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pasillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laundry room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuarto de lavado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utility room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lavadero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">despensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estudio</t>
   </si>
 </sst>
 </file>
@@ -1115,13 +768,13 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1129,7 +782,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1151,21 +804,21 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1173,7 +826,7 @@
       <c r="A2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1181,7 +834,7 @@
       <c r="A3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1189,7 +842,7 @@
       <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1197,7 +850,7 @@
       <c r="A5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1205,7 +858,7 @@
       <c r="A6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1213,792 +866,9 @@
       <c r="A7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="23.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B52"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2022,13 +892,13 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2036,7 +906,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2044,7 +914,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2052,7 +922,7 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2060,7 +930,7 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2068,7 +938,7 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2076,7 +946,7 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2084,7 +954,7 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2092,7 +962,7 @@
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2100,7 +970,7 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2108,7 +978,7 @@
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2116,7 +986,7 @@
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2124,7 +994,7 @@
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2132,7 +1002,7 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2140,7 +1010,7 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2166,13 +1036,13 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2180,7 +1050,7 @@
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2188,7 +1058,7 @@
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2196,7 +1066,7 @@
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2204,7 +1074,7 @@
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2212,7 +1082,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2220,7 +1090,7 @@
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2228,7 +1098,7 @@
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2236,7 +1106,7 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2244,7 +1114,7 @@
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2252,7 +1122,7 @@
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2260,7 +1130,7 @@
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2268,7 +1138,7 @@
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2276,7 +1146,7 @@
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2284,7 +1154,7 @@
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2310,7 +1180,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.09"/>
@@ -2428,13 +1298,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.86"/>
@@ -2559,51 +1429,6 @@
       <c r="B15" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2627,13 +1452,13 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2641,7 +1466,7 @@
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2649,7 +1474,7 @@
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2657,7 +1482,7 @@
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2665,7 +1490,7 @@
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2673,7 +1498,7 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2681,7 +1506,7 @@
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2689,7 +1514,7 @@
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2697,7 +1522,7 @@
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2705,7 +1530,7 @@
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2713,7 +1538,7 @@
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2721,7 +1546,7 @@
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2729,7 +1554,7 @@
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2737,7 +1562,7 @@
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2745,7 +1570,7 @@
       <c r="A15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2771,13 +1596,13 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2803,13 +1628,13 @@
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2817,7 +1642,7 @@
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2825,7 +1650,7 @@
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2833,7 +1658,7 @@
       <c r="A4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2841,7 +1666,7 @@
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2849,7 +1674,7 @@
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2857,7 +1682,7 @@
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2865,7 +1690,7 @@
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2873,7 +1698,7 @@
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2881,7 +1706,7 @@
       <c r="A10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2889,7 +1714,7 @@
       <c r="A11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2897,7 +1722,7 @@
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2905,7 +1730,7 @@
       <c r="A13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2913,7 +1738,7 @@
       <c r="A14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2921,7 +1746,7 @@
       <c r="A15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2941,13 +1766,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.46"/>
@@ -3072,54 +1897,6 @@
       <c r="B15" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
